--- a/IEDC_LookupTable_fill/stats_array_data.xlsx
+++ b/IEDC_LookupTable_fill/stats_array_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -142,7 +142,34 @@
     <t>high</t>
   </si>
   <si>
-    <t>Student</t>
+    <t>Student's T</t>
+  </si>
+  <si>
+    <t>mean value is stored in 'value' column, only low and high are stored here</t>
+  </si>
+  <si>
+    <t>moved from 0 as 0 is not allowed in mySQL db.</t>
+  </si>
+  <si>
+    <t>alternative value</t>
+  </si>
+  <si>
+    <t>basic (= reference) value is stored in 'value' column</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>low alternative</t>
+  </si>
+  <si>
+    <t>high (= reference) value is stored in 'value' column</t>
+  </si>
+  <si>
+    <t>high alternative</t>
+  </si>
+  <si>
+    <t>low (= reference) value is stored in 'value' column</t>
   </si>
 </sst>
 </file>
@@ -191,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -201,9 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -505,18 +534,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -550,7 +579,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -566,7 +595,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -582,7 +611,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -600,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -620,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -640,7 +669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -658,7 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -676,7 +705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -694,7 +723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -712,7 +741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -730,7 +759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -748,14 +777,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
@@ -764,29 +795,69 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IEDC_LookupTable_fill/stats_array_data.xlsx
+++ b/IEDC_LookupTable_fill/stats_array_data.xlsx
@@ -537,12 +537,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="74.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
